--- a/biology/Médecine/VR-Render/VR-Render.xlsx
+++ b/biology/Médecine/VR-Render/VR-Render.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">VR-Render est un logiciel gratuit d'imagerie médicale, permettant de visualiser des fichiers au format DICOM.
 </t>
@@ -511,7 +523,9 @@
           <t>Le produit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">VR-Render est un logiciel permettant de visualiser en 3 dimensions les données d'imagerie médicale sur différents systèmes (windows, linux, macosx).
 Il utilise un grand nombre de librairies libre tel que VTK, ITK, dcmtk.
@@ -543,7 +557,9 @@
           <t>Les auteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équipe de recherche et développement informatique de l'IRCAD est à l'origine de ce projet.
 </t>
@@ -574,11 +590,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2008, première version
 2009, VR-Render 0.8 : version améliorée avec plus de fonction
-2010: VR-Render Websurg LE : version plus professionnelle optimisée en ergonomie avec une base de données de cas cliniques 3D associés à leur vidéo opératoire téléchargeable gratuitement[1].</t>
+2010: VR-Render Websurg LE : version plus professionnelle optimisée en ergonomie avec une base de données de cas cliniques 3D associés à leur vidéo opératoire téléchargeable gratuitement.</t>
         </is>
       </c>
     </row>
